--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl5-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl5-Cxcr2.xlsx
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cxcl5</t>
+  </si>
+  <si>
+    <t>Cxcr2</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Cxcl5</t>
-  </si>
-  <si>
-    <t>Cxcr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>410.9308523333334</v>
+        <v>10.317597</v>
       </c>
       <c r="H2">
-        <v>1232.792557</v>
+        <v>20.635194</v>
       </c>
       <c r="I2">
-        <v>0.9876676028533683</v>
+        <v>0.02411218825630575</v>
       </c>
       <c r="J2">
-        <v>0.9906602959892742</v>
+        <v>0.01628546888406147</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0215165</v>
+        <v>6.861577</v>
       </c>
       <c r="N2">
-        <v>0.043033</v>
+        <v>20.584731</v>
       </c>
       <c r="O2">
-        <v>0.005938751083393454</v>
+        <v>0.02353994733464609</v>
       </c>
       <c r="P2">
-        <v>0.00396702043790345</v>
+        <v>0.02353994733464608</v>
       </c>
       <c r="Q2">
-        <v>8.841793684230169</v>
+        <v>70.794986270469</v>
       </c>
       <c r="R2">
-        <v>53.05076210538101</v>
+        <v>424.769917622814</v>
       </c>
       <c r="S2">
-        <v>0.005865512046478056</v>
+        <v>0.0005675996416765092</v>
       </c>
       <c r="T2">
-        <v>0.003929969641208932</v>
+        <v>0.0003833590798508246</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>410.9308523333334</v>
+        <v>10.317597</v>
       </c>
       <c r="H3">
-        <v>1232.792557</v>
+        <v>20.635194</v>
       </c>
       <c r="I3">
-        <v>0.9876676028533683</v>
+        <v>0.02411218825630575</v>
       </c>
       <c r="J3">
-        <v>0.9906602959892742</v>
+        <v>0.01628546888406147</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>3.398996666666667</v>
+        <v>282.6561686666666</v>
       </c>
       <c r="N3">
-        <v>10.19699</v>
+        <v>847.9685059999999</v>
       </c>
       <c r="O3">
-        <v>0.938154213585732</v>
+        <v>0.9697058452052895</v>
       </c>
       <c r="P3">
-        <v>0.940015052055332</v>
+        <v>0.9697058452052894</v>
       </c>
       <c r="Q3">
-        <v>1396.752597311493</v>
+        <v>2916.332437866694</v>
       </c>
       <c r="R3">
-        <v>12570.77337580343</v>
+        <v>17497.99462720017</v>
       </c>
       <c r="S3">
-        <v>0.9265845232390069</v>
+        <v>0.02338172989283002</v>
       </c>
       <c r="T3">
-        <v>0.9312355897035082</v>
+        <v>0.01579211436878327</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,75 +652,75 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>410.9308523333334</v>
+        <v>10.317597</v>
       </c>
       <c r="H4">
-        <v>1232.792557</v>
+        <v>20.635194</v>
       </c>
       <c r="I4">
-        <v>0.9876676028533683</v>
+        <v>0.02411218825630575</v>
       </c>
       <c r="J4">
-        <v>0.9906602959892742</v>
+        <v>0.01628546888406147</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.07911866666666666</v>
+        <v>1.968760333333333</v>
       </c>
       <c r="N4">
-        <v>0.237356</v>
+        <v>5.906281</v>
       </c>
       <c r="O4">
-        <v>0.02183747669850171</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="P4">
-        <v>0.02188079155668931</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="Q4">
-        <v>32.51230112881022</v>
+        <v>20.312875708919</v>
       </c>
       <c r="R4">
-        <v>292.610710159292</v>
+        <v>121.877254253514</v>
       </c>
       <c r="S4">
-        <v>0.02156816826317547</v>
+        <v>0.0001628587217992198</v>
       </c>
       <c r="T4">
-        <v>0.02167643144002945</v>
+        <v>0.0001099954354273762</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,40 +735,40 @@
         <v>1232.792557</v>
       </c>
       <c r="I5">
-        <v>0.9876676028533683</v>
+        <v>0.9603439707700846</v>
       </c>
       <c r="J5">
-        <v>0.9906602959892742</v>
+        <v>0.9729302679454375</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1234363333333333</v>
+        <v>6.861577</v>
       </c>
       <c r="N5">
-        <v>0.370309</v>
+        <v>20.584731</v>
       </c>
       <c r="O5">
-        <v>0.03406955863237277</v>
+        <v>0.02353994733464609</v>
       </c>
       <c r="P5">
-        <v>0.03413713595007526</v>
+        <v>0.02353994733464608</v>
       </c>
       <c r="Q5">
-        <v>50.72379766556812</v>
+        <v>2819.633684960796</v>
       </c>
       <c r="R5">
-        <v>456.5141789901131</v>
+        <v>25376.70316464717</v>
       </c>
       <c r="S5">
-        <v>0.03364939930470789</v>
+        <v>0.02260644649507269</v>
       </c>
       <c r="T5">
-        <v>0.03381830520452765</v>
+        <v>0.0229027272677187</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>3.7706535</v>
+        <v>410.9308523333334</v>
       </c>
       <c r="H6">
-        <v>7.541307000000001</v>
+        <v>1232.792557</v>
       </c>
       <c r="I6">
-        <v>0.009062722553902464</v>
+        <v>0.9603439707700846</v>
       </c>
       <c r="J6">
-        <v>0.006060122104359837</v>
+        <v>0.9729302679454375</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0215165</v>
+        <v>282.6561686666666</v>
       </c>
       <c r="N6">
-        <v>0.043033</v>
+        <v>847.9685059999999</v>
       </c>
       <c r="O6">
-        <v>0.005938751083393454</v>
+        <v>0.9697058452052895</v>
       </c>
       <c r="P6">
-        <v>0.00396702043790345</v>
+        <v>0.9697058452052894</v>
       </c>
       <c r="Q6">
-        <v>0.08113126603275</v>
+        <v>116152.1403074678</v>
       </c>
       <c r="R6">
-        <v>0.324525064131</v>
+        <v>1045369.26276721</v>
       </c>
       <c r="S6">
-        <v>5.382125338548254E-05</v>
+        <v>0.9312511618634087</v>
       </c>
       <c r="T6">
-        <v>2.404062824418594E-05</v>
+        <v>0.9434561678038391</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,185 +838,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>3.7706535</v>
+        <v>410.9308523333334</v>
       </c>
       <c r="H7">
-        <v>7.541307000000001</v>
+        <v>1232.792557</v>
       </c>
       <c r="I7">
-        <v>0.009062722553902464</v>
+        <v>0.9603439707700846</v>
       </c>
       <c r="J7">
-        <v>0.006060122104359837</v>
+        <v>0.9729302679454375</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>3.398996666666667</v>
+        <v>1.968760333333333</v>
       </c>
       <c r="N7">
-        <v>10.19699</v>
+        <v>5.906281</v>
       </c>
       <c r="O7">
-        <v>0.938154213585732</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="P7">
-        <v>0.940015052055332</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="Q7">
-        <v>12.816438677655</v>
+        <v>809.0243618167242</v>
       </c>
       <c r="R7">
-        <v>76.89863206593</v>
+        <v>7281.219256350518</v>
       </c>
       <c r="S7">
-        <v>0.008502231350502043</v>
+        <v>0.006486362411603263</v>
       </c>
       <c r="T7">
-        <v>0.00569660599539148</v>
+        <v>0.006571372873879619</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>3.7706535</v>
+        <v>6.2889545</v>
       </c>
       <c r="H8">
-        <v>7.541307000000001</v>
+        <v>12.577909</v>
       </c>
       <c r="I8">
-        <v>0.009062722553902464</v>
+        <v>0.01469726476420248</v>
       </c>
       <c r="J8">
-        <v>0.006060122104359837</v>
+        <v>0.009926591707645529</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.07911866666666666</v>
+        <v>6.861577</v>
       </c>
       <c r="N8">
-        <v>0.237356</v>
+        <v>20.584731</v>
       </c>
       <c r="O8">
-        <v>0.02183747669850171</v>
+        <v>0.02353994733464609</v>
       </c>
       <c r="P8">
-        <v>0.02188079155668931</v>
+        <v>0.02353994733464608</v>
       </c>
       <c r="Q8">
-        <v>0.298329077382</v>
+        <v>43.1521455512465</v>
       </c>
       <c r="R8">
-        <v>1.789974464292</v>
+        <v>258.9128733074789</v>
       </c>
       <c r="S8">
-        <v>0.000197906992595831</v>
+        <v>0.000345972838512676</v>
       </c>
       <c r="T8">
-        <v>0.000132600268573583</v>
+        <v>0.0002336714460105103</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>3.7706535</v>
+        <v>6.2889545</v>
       </c>
       <c r="H9">
-        <v>7.541307000000001</v>
+        <v>12.577909</v>
       </c>
       <c r="I9">
-        <v>0.009062722553902464</v>
+        <v>0.01469726476420248</v>
       </c>
       <c r="J9">
-        <v>0.006060122104359837</v>
+        <v>0.009926591707645529</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1234363333333333</v>
+        <v>282.6561686666666</v>
       </c>
       <c r="N9">
-        <v>0.370309</v>
+        <v>847.9685059999999</v>
       </c>
       <c r="O9">
-        <v>0.03406955863237277</v>
+        <v>0.9697058452052895</v>
       </c>
       <c r="P9">
-        <v>0.03413713595007526</v>
+        <v>0.9697058452052894</v>
       </c>
       <c r="Q9">
-        <v>0.4654356423105</v>
+        <v>1777.611783888992</v>
       </c>
       <c r="R9">
-        <v>2.792613853863</v>
+        <v>10665.67070333395</v>
       </c>
       <c r="S9">
-        <v>0.0003087629574191071</v>
+        <v>0.01425202355037688</v>
       </c>
       <c r="T9">
-        <v>0.0002068752121505879</v>
+        <v>0.009625874001870224</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,247 +1024,247 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.360387</v>
+        <v>6.2889545</v>
       </c>
       <c r="H10">
-        <v>4.081161</v>
+        <v>12.577909</v>
       </c>
       <c r="I10">
-        <v>0.003269674592729273</v>
+        <v>0.01469726476420248</v>
       </c>
       <c r="J10">
-        <v>0.003279581906366005</v>
+        <v>0.009926591707645529</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.0215165</v>
+        <v>1.968760333333333</v>
       </c>
       <c r="N10">
-        <v>0.043033</v>
+        <v>5.906281</v>
       </c>
       <c r="O10">
-        <v>0.005938751083393454</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="P10">
-        <v>0.00396702043790345</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="Q10">
-        <v>0.0292707668855</v>
+        <v>12.38144415773817</v>
       </c>
       <c r="R10">
-        <v>0.175624601313</v>
+        <v>74.28866494642899</v>
       </c>
       <c r="S10">
-        <v>1.941778352991502E-05</v>
+        <v>9.926837531291937E-05</v>
       </c>
       <c r="T10">
-        <v>1.30101684503323E-05</v>
+        <v>6.704625976479375E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.360387</v>
+        <v>0.3622496666666666</v>
       </c>
       <c r="H11">
-        <v>4.081161</v>
+        <v>1.086749</v>
       </c>
       <c r="I11">
-        <v>0.003269674592729273</v>
+        <v>0.0008465762094071585</v>
       </c>
       <c r="J11">
-        <v>0.003279581906366005</v>
+        <v>0.0008576714628553975</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>3.398996666666667</v>
+        <v>6.861577</v>
       </c>
       <c r="N11">
-        <v>10.19699</v>
+        <v>20.584731</v>
       </c>
       <c r="O11">
-        <v>0.938154213585732</v>
+        <v>0.02353994733464609</v>
       </c>
       <c r="P11">
-        <v>0.940015052055332</v>
+        <v>0.02353994733464608</v>
       </c>
       <c r="Q11">
-        <v>4.623950878376666</v>
+        <v>2.485603981057666</v>
       </c>
       <c r="R11">
-        <v>41.61555790539</v>
+        <v>22.370435829519</v>
       </c>
       <c r="S11">
-        <v>0.00306745899622318</v>
+        <v>1.992835938420883E-05</v>
       </c>
       <c r="T11">
-        <v>0.003082856356432365</v>
+        <v>2.018954106604492E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.360387</v>
+        <v>0.3622496666666666</v>
       </c>
       <c r="H12">
-        <v>4.081161</v>
+        <v>1.086749</v>
       </c>
       <c r="I12">
-        <v>0.003269674592729273</v>
+        <v>0.0008465762094071585</v>
       </c>
       <c r="J12">
-        <v>0.003279581906366005</v>
+        <v>0.0008576714628553975</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.07911866666666666</v>
+        <v>282.6561686666666</v>
       </c>
       <c r="N12">
-        <v>0.237356</v>
+        <v>847.9685059999999</v>
       </c>
       <c r="O12">
-        <v>0.02183747669850171</v>
+        <v>0.9697058452052895</v>
       </c>
       <c r="P12">
-        <v>0.02188079155668931</v>
+        <v>0.9697058452052894</v>
       </c>
       <c r="Q12">
-        <v>0.1076320055906667</v>
+        <v>102.3921028807771</v>
       </c>
       <c r="R12">
-        <v>0.9686880503159999</v>
+        <v>921.5289259269939</v>
       </c>
       <c r="S12">
-        <v>7.140144273040858E-05</v>
+        <v>0.0008209298986738588</v>
       </c>
       <c r="T12">
-        <v>7.175984808628431E-05</v>
+        <v>0.0008316890307966502</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1.360387</v>
+        <v>0.3622496666666666</v>
       </c>
       <c r="H13">
-        <v>4.081161</v>
+        <v>1.086749</v>
       </c>
       <c r="I13">
-        <v>0.003269674592729273</v>
+        <v>0.0008465762094071585</v>
       </c>
       <c r="J13">
-        <v>0.003279581906366005</v>
+        <v>0.0008576714628553975</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1234363333333333</v>
+        <v>1.968760333333333</v>
       </c>
       <c r="N13">
-        <v>0.370309</v>
+        <v>5.906281</v>
       </c>
       <c r="O13">
-        <v>0.03406955863237277</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="P13">
-        <v>0.03413713595007526</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="Q13">
-        <v>0.1679211831943333</v>
+        <v>0.7131827744965554</v>
       </c>
       <c r="R13">
-        <v>1.511290648749</v>
+        <v>6.418644970469</v>
       </c>
       <c r="S13">
-        <v>0.0001113963702457695</v>
+        <v>5.71795134909095E-06</v>
       </c>
       <c r="T13">
-        <v>0.0001119555333970233</v>
+        <v>5.792890992702352E-06</v>
       </c>
     </row>
   </sheetData>
